--- a/output/desembolsos.xlsx
+++ b/output/desembolsos.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">DIACONIA</t>
   </si>
   <si>
-    <t xml:space="preserve">IDH</t>
+    <t xml:space="preserve">IDH HONDURAS</t>
   </si>
 </sst>
 </file>
